--- a/params/constant.xlsx
+++ b/params/constant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Rate constants</t>
   </si>
@@ -264,9 +264,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>SCH... changes rate of 7 (MEK-on+ERK-off -&gt; ERK-on)</t>
-  </si>
-  <si>
     <t>Gef</t>
   </si>
   <si>
@@ -307,6 +304,12 @@
   </si>
   <si>
     <t>BMSRate... multiply by some constant to lower rate of 18 (TACE-on → TACE-on + TGFA)</t>
+  </si>
+  <si>
+    <t>ERK-on + RAF-on → ERK-on + RAF-off</t>
+  </si>
+  <si>
+    <t>I + K → I + D</t>
   </si>
 </sst>
 </file>
@@ -690,11 +693,12 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R31"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="101.5" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
@@ -735,21 +739,21 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -784,16 +788,16 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2">
-        <v>1</v>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -818,24 +822,24 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2">
+      <c r="I4" s="2">
         <v>2</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -860,24 +864,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -902,24 +906,24 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2">
+      <c r="I6" s="2">
         <v>4</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -944,24 +948,24 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2">
+      <c r="I7" s="2">
         <v>5</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -986,24 +990,24 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2">
+      <c r="I8" s="2">
         <v>6</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1028,24 +1032,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2">
+      <c r="I9" s="2">
         <v>7</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1070,24 +1074,24 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2">
+      <c r="I10" s="2">
         <v>8</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1112,24 +1116,24 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2">
+      <c r="I11" s="2">
         <v>9</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1162,16 +1166,16 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2">
+      <c r="I12" s="2">
         <v>10</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1196,24 +1200,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2">
+      <c r="I13" s="2">
         <v>11</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1238,24 +1242,24 @@
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2">
+      <c r="I14" s="2">
         <v>12</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1280,24 +1284,24 @@
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2">
+      <c r="I15" s="2">
         <v>13</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1322,24 +1326,24 @@
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2">
+      <c r="I16" s="2">
         <v>14</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1364,24 +1368,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2">
+      <c r="I17" s="2">
         <v>15</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1406,24 +1410,24 @@
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2">
+      <c r="I18" s="2">
         <v>16</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1444,20 +1448,28 @@
       <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
         <v>17</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1478,20 +1490,28 @@
       <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
         <v>18</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1504,26 +1524,36 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2">
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2">
+      <c r="D21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
         <v>19</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1536,7 +1566,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2">
         <v>20</v>
@@ -1545,17 +1575,19 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2">
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
         <v>20</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1568,7 +1600,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2">
         <v>21</v>
@@ -1577,17 +1609,19 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2">
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
         <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1600,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2">
         <v>22</v>
@@ -1609,17 +1643,19 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2">
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
         <v>22</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1632,7 +1668,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2">
         <v>23</v>
@@ -1658,7 +1694,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2">
         <v>24</v>
@@ -1684,7 +1720,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2">
         <v>25</v>

--- a/params/constant.xlsx
+++ b/params/constant.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
